--- a/October'21/03.10.2021/Daily Sales Info.xlsx
+++ b/October'21/03.10.2021/Daily Sales Info.xlsx
@@ -14793,7 +14793,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'9'!E29</f>
@@ -15971,7 +15971,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -16343,7 +16343,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'10'!E29</f>
@@ -17521,7 +17521,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -17893,7 +17893,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
@@ -19071,7 +19071,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -19443,7 +19443,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
@@ -20621,7 +20621,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -20993,7 +20993,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
@@ -22171,7 +22171,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -22543,7 +22543,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
@@ -23721,7 +23721,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -24093,7 +24093,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
@@ -25271,7 +25271,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -25643,7 +25643,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
@@ -26821,7 +26821,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -27193,7 +27193,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
@@ -28371,7 +28371,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -28743,7 +28743,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
@@ -29921,7 +29921,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -31995,7 +31995,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
@@ -33173,7 +33173,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -33545,7 +33545,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
@@ -34723,7 +34723,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -35095,7 +35095,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
@@ -36273,7 +36273,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -36645,7 +36645,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
@@ -37823,7 +37823,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -38195,7 +38195,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
@@ -39373,7 +39373,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -39745,7 +39745,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
@@ -40923,7 +40923,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -41295,7 +41295,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
@@ -42473,7 +42473,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -42845,7 +42845,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
@@ -44023,7 +44023,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -44395,7 +44395,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
@@ -45573,7 +45573,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -45945,7 +45945,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
@@ -47123,7 +47123,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -47401,8 +47401,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48229,7 +48229,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="29">
-        <v>13245</v>
+        <v>13246</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -48241,15 +48241,15 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>13245</v>
+        <v>13246</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>13245</v>
+        <v>13246</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>364.23750000000001</v>
+        <v>364.26499999999999</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
@@ -48257,15 +48257,15 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>12783.762500000001</v>
+        <v>12784.735000000001</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>125.8275</v>
+        <v>125.837</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>28.827500000000001</v>
+        <v>28.837000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -48758,7 +48758,7 @@
       <c r="C28" s="55"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>218580</v>
+        <v>218581</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -48794,15 +48794,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>230580</v>
+        <v>230581</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>250538</v>
+        <v>250539</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>6340.95</v>
+        <v>6340.9775</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -48814,15 +48814,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>242430.05</v>
+        <v>242431.02249999999</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>2190.5099999999998</v>
+        <v>2190.5194999999999</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>423.50999999999993</v>
+        <v>423.51949999999994</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -48833,7 +48833,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -49205,7 +49205,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
@@ -50383,7 +50383,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -50755,7 +50755,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
@@ -51933,7 +51933,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -53306,7 +53306,7 @@
       </c>
       <c r="D18" s="21">
         <f>'1'!D18+'2'!D18+'3'!D18+'4'!D18+'5'!D18+'6'!D18+'7'!D18+'8'!D18+'9'!D18+'10'!D18+'11'!D18+'12'!D18+'13'!D18+'14'!D18+'15'!D18+'16'!D18+'17'!D18+'18'!D18+'19'!D18+'20'!D18+'21'!D18+'22'!D18+'23'!D18+'24'!D18+'25'!D18+'26'!D18+'27'!D18+'28'!D18+'29'!D18+'30'!D18+'31'!D18</f>
-        <v>23273</v>
+        <v>23274</v>
       </c>
       <c r="E18" s="21">
         <f>'1'!E18+'2'!E18+'3'!E18+'4'!E18+'5'!E18+'6'!E18+'7'!E18+'8'!E18+'9'!E18+'10'!E18+'11'!E18+'12'!E18+'13'!E18+'14'!E18+'15'!E18+'16'!E18+'17'!E18+'18'!E18+'19'!E18+'20'!E18+'21'!E18+'22'!E18+'23'!E18+'24'!E18+'25'!E18+'26'!E18+'27'!E18+'28'!E18+'29'!E18+'30'!E18+'31'!E18</f>
@@ -53342,15 +53342,15 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>23273</v>
+        <v>23274</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>23273</v>
+        <v>23274</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>640.00750000000005</v>
+        <v>640.03499999999997</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
@@ -53359,15 +53359,15 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>22383.9925</v>
+        <v>22384.965</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>221.09350000000001</v>
+        <v>221.10300000000001</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>-27.906499999999994</v>
+        <v>-27.896999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54062,7 +54062,7 @@
       <c r="C28" s="55"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>398543</v>
+        <v>398544</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -54098,15 +54098,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>420723</v>
+        <v>420724</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>465477</v>
+        <v>465478</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>11569.8825</v>
+        <v>11569.91</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -54118,15 +54118,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>450458.11749999993</v>
+        <v>450459.08999999997</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>3996.8685000000009</v>
+        <v>3996.8780000000011</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>547.86850000000004</v>
+        <v>547.87799999999993</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -54137,7 +54137,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -54505,7 +54505,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'3'!E29</f>
@@ -55683,7 +55683,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -56055,7 +56055,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'4'!E29</f>
@@ -57236,7 +57236,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -57608,7 +57608,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'5'!E29</f>
@@ -58786,7 +58786,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -59158,7 +59158,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'6'!E29</f>
@@ -60336,7 +60336,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -60708,7 +60708,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'7'!E29</f>
@@ -61886,7 +61886,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -62258,7 +62258,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E4" s="2">
         <f>'8'!E29</f>
@@ -63436,7 +63436,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>581472</v>
+        <v>581471</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
